--- a/Biblioteca.xlsx
+++ b/Biblioteca.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C611681E-1602-47D4-9AA8-14AB06AFE94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E452583-2ED6-44B6-8B21-039864C84BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{FABD5165-5612-4DF0-A1E8-85FA3E10541F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{FABD5165-5612-4DF0-A1E8-85FA3E10541F}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
     <sheet name="Pivot" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_Biblioteca.xlsxBiblioteca" hidden="1">Biblioteca[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_Biblioteca.xlsxLibro1" hidden="1">Libro[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Biblioteca.xlsxBiblioteca1" hidden="1">Biblioteca[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Biblioteca.xlsxLibro" hidden="1">Libro[]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="34" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -67,7 +67,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Biblioteca">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Biblioteca.xlsxBiblioteca"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Biblioteca.xlsxBiblioteca1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -76,7 +76,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Libro" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Biblioteca.xlsxLibro1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Biblioteca.xlsxLibro"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -759,6 +759,108 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Biancoenero Regular"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Biancoenero Regular"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Biancoenero Regular"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Biancoenero Regular"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Biancoenero Regular"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -915,6 +1017,72 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Biancoenero Regular"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Biancoenero Regular"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Biancoenero Regular"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -999,6 +1167,61 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Biancoenero Regular"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Biancoenero Regular"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Biancoenero Regular"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1041,12 +1264,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1065,223 +1282,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Biancoenero Regular"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Biancoenero Regular"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Biancoenero Regular"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Biancoenero Regular"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Biancoenero Regular"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Biancoenero Regular"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Biancoenero Regular"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Biancoenero Regular"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Biancoenero Regular"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Biancoenero Regular"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Biancoenero Regular"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1641,7 +1641,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FE13E7A7-2F4C-4B7F-A2DB-5FE6A877C9DF}" name="Tabella pivot1" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FE13E7A7-2F4C-4B7F-A2DB-5FE6A877C9DF}" name="Tabella pivot1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -1830,16 +1830,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{209A3FB0-612F-4CBB-8A13-A6BC6CB715F0}" name="Biblioteca" displayName="Biblioteca" ref="B61:H64" totalsRowShown="0" headerRowDxfId="24" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{209A3FB0-612F-4CBB-8A13-A6BC6CB715F0}" name="Biblioteca" displayName="Biblioteca" ref="B61:H64" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="B61:H64" xr:uid="{209A3FB0-612F-4CBB-8A13-A6BC6CB715F0}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AA3644BF-B294-40EB-81D7-DBD66B9181BE}" name="id_biblioteca" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{AA91EA34-62B9-408E-8930-22589899F267}" name="Nome" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{775CC724-2F17-4526-805B-C2E7A391DAD2}" name="Indirizzo" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{B11C65E5-D685-446C-BC90-CB4275F3FB82}" name="Città" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{1F94BC7A-A91B-4CAA-8811-94BEF356A818}" name="CAP" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{F2D16EBF-D542-46C7-99DA-6F2FAC4B5C49}" name="Nazione" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{D4B79669-D2D7-41A0-8CA5-6108E550E568}" name="id_bibliotecario" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{AA3644BF-B294-40EB-81D7-DBD66B9181BE}" name="id_biblioteca" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{AA91EA34-62B9-408E-8930-22589899F267}" name="Nome" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{775CC724-2F17-4526-805B-C2E7A391DAD2}" name="Indirizzo" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{B11C65E5-D685-446C-BC90-CB4275F3FB82}" name="Città" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{1F94BC7A-A91B-4CAA-8811-94BEF356A818}" name="CAP" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{F2D16EBF-D542-46C7-99DA-6F2FAC4B5C49}" name="Nazione" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{D4B79669-D2D7-41A0-8CA5-6108E550E568}" name="id_bibliotecario" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1872,29 +1872,29 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{85862A76-3502-4E40-8663-DBDEC4D336EB}" name="Tabella8" displayName="Tabella8" ref="B87:G90" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{85862A76-3502-4E40-8663-DBDEC4D336EB}" name="Tabella8" displayName="Tabella8" ref="B87:G90" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="B87:G90" xr:uid="{85862A76-3502-4E40-8663-DBDEC4D336EB}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B157CC9A-9E8A-4C49-A446-0FD41F945F2F}" name="ID" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{2CE5427C-C03B-4C91-B190-659509525338}" name="Nome" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{779822CF-7837-4096-9E0C-EDF56B50CC02}" name="Cognome" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{41AA37DC-98AA-4448-9ED2-2FA6D97253CB}" name="Data_di_nascita" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{B157CC9A-9E8A-4C49-A446-0FD41F945F2F}" name="ID" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{2CE5427C-C03B-4C91-B190-659509525338}" name="Nome" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{779822CF-7837-4096-9E0C-EDF56B50CC02}" name="Cognome" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{41AA37DC-98AA-4448-9ED2-2FA6D97253CB}" name="Data_di_nascita" dataDxfId="10"/>
     <tableColumn id="5" xr3:uid="{54875E5B-3F1E-4965-914A-EF2CD118357D}" name="id_residenza"/>
-    <tableColumn id="6" xr3:uid="{4F763ACC-063F-4443-959D-20EEE036AEEA}" name="id_prestito" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{4F763ACC-063F-4443-959D-20EEE036AEEA}" name="id_prestito" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{AC4D7B0A-A168-4680-9F94-750C0E9D0A5B}" name="Tabella9" displayName="Tabella9" ref="B95:F98" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{AC4D7B0A-A168-4680-9F94-750C0E9D0A5B}" name="Tabella9" displayName="Tabella9" ref="B95:F98" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="B95:F98" xr:uid="{AC4D7B0A-A168-4680-9F94-750C0E9D0A5B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1B6FDE28-C6B5-4B9D-864F-8C8746ACA83C}" name="ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{7A6D3D36-8B8D-4A98-82F4-DD4C79D9E7C2}" name="Indirizzo" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{4AD5FE3E-995B-49B2-8E13-385BEFE5366F}" name="Città" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{48DBC369-4559-4DE2-9689-72D841C4E451}" name="Provincia" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{9D78E830-5833-4BC3-8135-B2BB232725CA}" name="Nazione" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{1B6FDE28-C6B5-4B9D-864F-8C8746ACA83C}" name="ID" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{7A6D3D36-8B8D-4A98-82F4-DD4C79D9E7C2}" name="Indirizzo" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{4AD5FE3E-995B-49B2-8E13-385BEFE5366F}" name="Città" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{48DBC369-4559-4DE2-9689-72D841C4E451}" name="Provincia" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{9D78E830-5833-4BC3-8135-B2BB232725CA}" name="Nazione" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2212,7 +2212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61457738-7823-4DB1-B9D5-B480CD191B99}">
   <dimension ref="B2:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
@@ -3989,7 +3989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE22BDE-6FF7-4F53-9A88-F236670C565C}">
   <dimension ref="A3:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
